--- a/SHG Blank.xlsx
+++ b/SHG Blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E13CA3B-0F9D-4BA4-9D01-F5693B8C9FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EE873D-92A8-465F-AEA2-965BB209E3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -1764,7 +1764,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1805,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
   <dimension ref="A1:BI1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2261,7 +2261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20210E06-3E75-475D-B896-50826558A690}">
   <dimension ref="A1:CO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2269,7 +2271,7 @@
     <col min="2" max="16384" width="17.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="23" customFormat="1" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:93" s="23" customFormat="1" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>

--- a/SHG Blank.xlsx
+++ b/SHG Blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EE873D-92A8-465F-AEA2-965BB209E3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0785F5-66B3-4E4D-A2D3-435EFFECD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="4332" yWindow="1260" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="284">
   <si>
     <t>App</t>
   </si>
@@ -1024,13 +1024,193 @@
   </si>
   <si>
     <t>416 Date of Balance taken</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>SHG Bookkeeper</t>
+  </si>
+  <si>
+    <t>HR_HRSHGBK1</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>LokOS_2.0.31.apk</t>
+  </si>
+  <si>
+    <t>SHG Meetings</t>
+  </si>
+  <si>
+    <t>Cutoff New</t>
+  </si>
+  <si>
+    <t>BALAJI MAHILA SHG</t>
+  </si>
+  <si>
+    <t>ALAWLA</t>
+  </si>
+  <si>
+    <t>25_01_2016</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Co-opted</t>
+  </si>
+  <si>
+    <t>Aaryaman Gupta</t>
+  </si>
+  <si>
+    <t>02_01_2012</t>
+  </si>
+  <si>
+    <t>05_06_2020</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Special Class</t>
+  </si>
+  <si>
+    <t>Fortnightly</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes-External</t>
+  </si>
+  <si>
+    <t>Sulata Gupta</t>
+  </si>
+  <si>
+    <t>#9455885271</t>
+  </si>
+  <si>
+    <t>Horticulture Activities</t>
+  </si>
+  <si>
+    <t>Other livestock rearing</t>
+  </si>
+  <si>
+    <t>NTFP Collection</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Aaryaman Seth:9455120510</t>
+  </si>
+  <si>
+    <t>Transit Flats</t>
+  </si>
+  <si>
+    <t>Hudco Place</t>
+  </si>
+  <si>
+    <t>Aaryaman Gupta SHG</t>
+  </si>
+  <si>
+    <t>SBIN0000131</t>
+  </si>
+  <si>
+    <t>STATE BANK OF INDIA</t>
+  </si>
+  <si>
+    <t>Main Branch</t>
+  </si>
+  <si>
+    <t>#40256541490</t>
+  </si>
+  <si>
+    <t>23_02_2020</t>
+  </si>
+  <si>
+    <t>Aaryaman Seth</t>
+  </si>
+  <si>
+    <t>02_01_2022</t>
+  </si>
+  <si>
+    <t>Aaryaman  Sen</t>
+  </si>
+  <si>
+    <t>Aaryaman Two</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>22_02_2022</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>04_7_2019</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>Share Capital</t>
+  </si>
+  <si>
+    <t>Bank loan</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>04_07_2019</t>
+  </si>
+  <si>
+    <t>PSIB01401000025848</t>
+  </si>
+  <si>
+    <t>aaryamangupta123</t>
+  </si>
+  <si>
+    <t>VRF Grant</t>
+  </si>
+  <si>
+    <t>PSIBXXXXX848</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,6 +1273,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1323,10 +1511,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1447,8 +1636,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1761,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAFDE49-6EC4-411F-AEDE-4DE32D140FEF}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1772,7 +1968,7 @@
     <col min="1" max="16384" width="17" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="33" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
@@ -1795,18 +1991,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{74AFFBF8-8FC9-4CBA-B534-F92FC713A667}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
-  <dimension ref="A1:BI1"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,6 +2225,168 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="U2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>300</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>110049</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AX2"/>
+      <c r="AY2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2008,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2AFBE2-8906-498D-ACCA-04BB80549CA6}">
-  <dimension ref="A1:BH1"/>
+  <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:CN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2019,7 +2406,7 @@
     <col min="1" max="16384" width="16.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="41" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" s="41" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
@@ -2199,6 +2586,284 @@
       </c>
       <c r="BH1" s="40" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>200</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>100</v>
+      </c>
+      <c r="N2" s="1">
+        <v>900</v>
+      </c>
+      <c r="O2" s="1">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>100</v>
+      </c>
+      <c r="R2" s="1">
+        <v>400</v>
+      </c>
+      <c r="S2" s="1">
+        <v>700</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>900</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>400</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>700</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>900</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>400</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>700</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>300</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>100</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>486426</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>10</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>18</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>12</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>7</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>500</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
